--- a/labturisme_abril_2021/documents/Dades-infografia-abril-mapa-campings.xlsx
+++ b/labturisme_abril_2021/documents/Dades-infografia-abril-mapa-campings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Storydata\LABTurisme\abril\labturisme_marc_2021\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Storydata\LABTurisme\abril\labturisme_abril_2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440C8C65-8F3A-4968-BCE3-AD9CC2D535FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AB9DE-5499-4097-809A-7CC95F2D7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,13 +64,13 @@
     <t>-10,4</t>
   </si>
   <si>
-    <t>-34,2</t>
-  </si>
-  <si>
     <t>-7,8</t>
   </si>
   <si>
     <t>Nota: Donat el tancament de l’activitat turística a l’abril de 2020, no es poden representar les variacions anuals 2021/2020, atès que els valors són 0.</t>
+  </si>
+  <si>
+    <t>+1,72</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,7 +595,7 @@
         <v>36060</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="8">
         <v>-0.11600000000000001</v>
@@ -618,7 +618,7 @@
         <v>125711</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="8">
         <v>-0.437</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="5"/>
     </row>
